--- a/映射模板设计.xlsx
+++ b/映射模板设计.xlsx
@@ -2639,8 +2639,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G169"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="I45" sqref="I45"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
